--- a/RawData/pretreatment_of_hardwood_chips_via_autohydrolysis_supported_by_acetic_and_formic_acid.xlsx
+++ b/RawData/pretreatment_of_hardwood_chips_via_autohydrolysis_supported_by_acetic_and_formic_acid.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/Fourth Year/Renamed_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/Fourth Year/Renamed_Data/1 - Monomeric Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770960DF-9E68-1946-A184-C5C5027F7E77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC02DCA-0B6A-7041-9D98-746CFE166CF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2180" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43380" yWindow="2600" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,12 +243,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2306,10 +2306,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2318,36 +2318,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="4" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2422,7 +2422,7 @@
       <c r="X2" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
       <c r="N4">
         <v>17.238600000000002</v>
       </c>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="4"/>
       <c r="T4">
         <v>4.3802556340986207</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="N5">
         <v>17.238600000000002</v>
       </c>
-      <c r="Q5" s="6"/>
+      <c r="Q5" s="4"/>
       <c r="T5">
         <v>4.4948496743454021</v>
       </c>
@@ -2573,7 +2573,7 @@
       <c r="N6">
         <v>17.238600000000002</v>
       </c>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="4"/>
       <c r="T6">
         <v>5.7541092097408084</v>
       </c>
@@ -2612,7 +2612,7 @@
       <c r="N7">
         <v>17.238600000000002</v>
       </c>
-      <c r="Q7" s="6"/>
+      <c r="Q7" s="4"/>
       <c r="T7">
         <v>6.0309826406699738</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="N8">
         <v>17.238600000000002</v>
       </c>
-      <c r="Q8" s="6"/>
+      <c r="Q8" s="4"/>
       <c r="T8">
         <v>6.2436093424794947</v>
       </c>
@@ -2663,14 +2663,14 @@
       <c r="A9">
         <v>90</v>
       </c>
-      <c r="B9">
-        <v>160</v>
+      <c r="B9" s="3">
+        <v>170</v>
       </c>
       <c r="C9">
         <v>4.5</v>
       </c>
       <c r="D9">
-        <v>1.6645567205885465</v>
+        <v>0.21725</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -2690,12 +2690,12 @@
       <c r="N9">
         <v>17.238600000000002</v>
       </c>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="4"/>
       <c r="T9">
-        <v>6.8072850295230349</v>
+        <v>4.9646714532298031</v>
       </c>
       <c r="Y9">
-        <v>2.9904986415029544</v>
+        <v>4.9295837339315574</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -2703,7 +2703,7 @@
         <v>90</v>
       </c>
       <c r="B10" s="3">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C10">
         <v>4.5</v>
@@ -2729,12 +2729,12 @@
       <c r="N10">
         <v>17.238600000000002</v>
       </c>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="4"/>
       <c r="T10">
-        <v>4.9646714532298031</v>
+        <v>4.8528009143729394</v>
       </c>
       <c r="Y10">
-        <v>4.9295837339315574</v>
+        <v>3.7299938968290793</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -2742,7 +2742,7 @@
         <v>90</v>
       </c>
       <c r="B11" s="3">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C11">
         <v>4.5</v>
@@ -2768,12 +2768,12 @@
       <c r="N11">
         <v>17.238600000000002</v>
       </c>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="4"/>
       <c r="T11">
-        <v>4.8528009143729394</v>
+        <v>4.238418972041452</v>
       </c>
       <c r="Y11">
-        <v>3.7299938968290793</v>
+        <v>1.3553780363689318</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -2781,7 +2781,7 @@
         <v>90</v>
       </c>
       <c r="B12" s="3">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C12">
         <v>4.5</v>
@@ -2807,12 +2807,12 @@
       <c r="N12">
         <v>17.238600000000002</v>
       </c>
-      <c r="Q12" s="6"/>
+      <c r="Q12" s="4"/>
       <c r="T12">
-        <v>4.238418972041452</v>
+        <v>3.2133861211345129</v>
       </c>
       <c r="Y12">
-        <v>1.3553780363689318</v>
+        <v>0.24262588721638295</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -2820,7 +2820,7 @@
         <v>90</v>
       </c>
       <c r="B13" s="3">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C13">
         <v>4.5</v>
@@ -2846,52 +2846,17 @@
       <c r="N13">
         <v>17.238600000000002</v>
       </c>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="4"/>
       <c r="T13">
-        <v>3.2133861211345129</v>
+        <v>1.563102282063485</v>
       </c>
       <c r="Y13">
-        <v>0.24262588721638295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>90</v>
-      </c>
-      <c r="B14" s="3">
-        <v>120</v>
-      </c>
-      <c r="C14">
-        <v>4.5</v>
-      </c>
-      <c r="D14">
-        <v>0.21725</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>20</v>
-      </c>
-      <c r="H14">
-        <v>90</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>17.238600000000002</v>
-      </c>
-      <c r="Q14" s="6"/>
-      <c r="T14">
-        <v>1.563102282063485</v>
-      </c>
-      <c r="Y14">
         <v>1.3394679724305001E-2</v>
       </c>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.2">
       <c r="K18" s="3"/>
@@ -2901,7 +2866,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
@@ -2921,18 +2888,13 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
     </row>
     <row r="24" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
+    <row r="25" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3907,7 +3869,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>

--- a/RawData/pretreatment_of_hardwood_chips_via_autohydrolysis_supported_by_acetic_and_formic_acid.xlsx
+++ b/RawData/pretreatment_of_hardwood_chips_via_autohydrolysis_supported_by_acetic_and_formic_acid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/Fourth Year/Renamed_Data/1 - Monomeric Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC02DCA-0B6A-7041-9D98-746CFE166CF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FE1CFA-5C7C-9546-A357-515DD9E9E732}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43380" yWindow="2600" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,13 +238,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2306,10 +2307,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y999"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2317,39 +2318,39 @@
     <col min="1" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="6" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>90</v>
       </c>
@@ -2497,13 +2498,15 @@
       </c>
       <c r="Q4" s="4"/>
       <c r="T4">
-        <v>4.3802556340986207</v>
-      </c>
+        <v>4.9775632205666147</v>
+      </c>
+      <c r="U4" s="6"/>
       <c r="Y4">
-        <v>0.37055298138476134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.42108293339177427</v>
+      </c>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>90</v>
       </c>
@@ -2536,13 +2539,15 @@
       </c>
       <c r="Q5" s="4"/>
       <c r="T5">
-        <v>4.4948496743454021</v>
-      </c>
+        <v>5.1077837208470473</v>
+      </c>
+      <c r="U5" s="6"/>
       <c r="Y5">
-        <v>0.48514702163154205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.55130343367220691</v>
+      </c>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>90</v>
       </c>
@@ -2575,13 +2580,15 @@
       </c>
       <c r="Q6" s="4"/>
       <c r="T6">
-        <v>5.7541092097408084</v>
-      </c>
+        <v>6.5387604656145548</v>
+      </c>
+      <c r="U6" s="6"/>
       <c r="Y6">
-        <v>0.87972138629344887</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0.99968339351528279</v>
+      </c>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>90</v>
       </c>
@@ -2614,13 +2621,15 @@
       </c>
       <c r="Q7" s="4"/>
       <c r="T7">
-        <v>6.0309826406699738</v>
-      </c>
+        <v>6.8533893643976977</v>
+      </c>
+      <c r="U7" s="6"/>
       <c r="Y7">
-        <v>1.2166541760732841</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+        <v>1.3825615637196409</v>
+      </c>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>90</v>
       </c>
@@ -2653,13 +2662,15 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="T8">
-        <v>6.2436093424794947</v>
-      </c>
+        <v>7.0950106164539717</v>
+      </c>
+      <c r="U8" s="6"/>
       <c r="Y8">
-        <v>1.6276906014278749</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+        <v>1.8496484107134943</v>
+      </c>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>90</v>
       </c>
@@ -2692,13 +2703,15 @@
       </c>
       <c r="Q9" s="4"/>
       <c r="T9">
-        <v>4.9646714532298031</v>
-      </c>
+        <v>5.6416721059429582</v>
+      </c>
+      <c r="U9" s="6"/>
       <c r="Y9">
-        <v>4.9295837339315574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+        <v>5.601799697649497</v>
+      </c>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>90</v>
       </c>
@@ -2731,13 +2744,15 @@
       </c>
       <c r="Q10" s="4"/>
       <c r="T10">
-        <v>4.8528009143729394</v>
-      </c>
+        <v>5.5145464936056126</v>
+      </c>
+      <c r="U10" s="6"/>
       <c r="Y10">
-        <v>3.7299938968290793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+        <v>4.2386294282148631</v>
+      </c>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>90</v>
       </c>
@@ -2770,13 +2785,15 @@
       </c>
       <c r="Q11" s="4"/>
       <c r="T11">
-        <v>4.238418972041452</v>
-      </c>
+        <v>4.8163851955016499</v>
+      </c>
+      <c r="U11" s="6"/>
       <c r="Y11">
-        <v>1.3553780363689318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+        <v>1.5402023140556043</v>
+      </c>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>90</v>
       </c>
@@ -2809,50 +2826,17 @@
       </c>
       <c r="Q12" s="4"/>
       <c r="T12">
-        <v>3.2133861211345129</v>
-      </c>
+        <v>3.6515751376528556</v>
+      </c>
+      <c r="U12" s="6"/>
       <c r="Y12">
-        <v>0.24262588721638295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>90</v>
-      </c>
-      <c r="B13" s="3">
-        <v>120</v>
-      </c>
-      <c r="C13">
-        <v>4.5</v>
-      </c>
-      <c r="D13">
-        <v>0.21725</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>20</v>
-      </c>
-      <c r="H13">
-        <v>90</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>17.238600000000002</v>
-      </c>
-      <c r="Q13" s="4"/>
-      <c r="T13">
-        <v>1.563102282063485</v>
-      </c>
-      <c r="Y13">
-        <v>1.3394679724305001E-2</v>
-      </c>
+        <v>0.27571123547316245</v>
+      </c>
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.2">
       <c r="K17" s="3"/>
@@ -2862,7 +2846,9 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
@@ -2882,18 +2868,13 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
+    <row r="24" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3868,7 +3849,6 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>

--- a/RawData/pretreatment_of_hardwood_chips_via_autohydrolysis_supported_by_acetic_and_formic_acid.xlsx
+++ b/RawData/pretreatment_of_hardwood_chips_via_autohydrolysis_supported_by_acetic_and_formic_acid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/Fourth Year/Renamed_Data/1 - Monomeric Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/GitHub/Hemicellulose(July 3rd)/HemicelluloseMachineLearning/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FE1CFA-5C7C-9546-A357-515DD9E9E732}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B3E716-AB20-DC43-969F-476DF660F6C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2307,18 +2307,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Y998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="8.83203125" customWidth="1"/>
+    <col min="1" max="25" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="W1" s="8"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>90</v>
       </c>
@@ -2504,9 +2504,8 @@
       <c r="Y4">
         <v>0.42108293339177427</v>
       </c>
-      <c r="Z4" s="6"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>90</v>
       </c>
@@ -2545,9 +2544,8 @@
       <c r="Y5">
         <v>0.55130343367220691</v>
       </c>
-      <c r="Z5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>90</v>
       </c>
@@ -2586,9 +2584,8 @@
       <c r="Y6">
         <v>0.99968339351528279</v>
       </c>
-      <c r="Z6" s="6"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>90</v>
       </c>
@@ -2627,9 +2624,8 @@
       <c r="Y7">
         <v>1.3825615637196409</v>
       </c>
-      <c r="Z7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>90</v>
       </c>
@@ -2668,9 +2664,8 @@
       <c r="Y8">
         <v>1.8496484107134943</v>
       </c>
-      <c r="Z8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>90</v>
       </c>
@@ -2709,9 +2704,8 @@
       <c r="Y9">
         <v>5.601799697649497</v>
       </c>
-      <c r="Z9" s="6"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>90</v>
       </c>
@@ -2750,9 +2744,8 @@
       <c r="Y10">
         <v>4.2386294282148631</v>
       </c>
-      <c r="Z10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>90</v>
       </c>
@@ -2791,9 +2784,8 @@
       <c r="Y11">
         <v>1.5402023140556043</v>
       </c>
-      <c r="Z11" s="6"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>90</v>
       </c>
@@ -2832,9 +2824,8 @@
       <c r="Y12">
         <v>0.27571123547316245</v>
       </c>
-      <c r="Z12" s="6"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
